--- a/bin/pattern_specs.xlsx
+++ b/bin/pattern_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/mr_processing_tools/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15457239-3DC9-084F-B1FF-769E7E1D15D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C780D4-996E-0049-A1B4-7363C7294D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="5300" windowWidth="27240" windowHeight="16440" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="patterns" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Scan name</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>ase</t>
+  </si>
+  <si>
+    <t>*MULTIPHASE*</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,6 +807,9 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
       <c r="K8">
         <v>2</v>
       </c>

--- a/bin/pattern_specs.xlsx
+++ b/bin/pattern_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/mr_processing_tools/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C780D4-996E-0049-A1B4-7363C7294D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BB244-5821-F64C-A208-677A55069356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="33060" windowHeight="23940" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="patterns" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Scan name</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>*MULTIPHASE*</t>
+  </si>
+  <si>
+    <t>*ASE*B0*</t>
+  </si>
+  <si>
+    <t>aseb0</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46497A90-C95B-C143-8A93-025D0CA3809C}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -811,12 +817,38 @@
         <v>28</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
     </row>

--- a/bin/pattern_specs.xlsx
+++ b/bin/pattern_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/mr_processing_tools/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BB244-5821-F64C-A208-677A55069356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82B0AB-A38A-A14E-AF8D-5164E020CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="33060" windowHeight="23940" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>cvr</t>
   </si>
   <si>
-    <t>pcasl</t>
-  </si>
-  <si>
     <t>aslm0</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>aseb0</t>
+  </si>
+  <si>
+    <t>asl</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,7 +756,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9">
         <v>0</v>
